--- a/4-Current_work/pbs.xlsx
+++ b/4-Current_work/pbs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\Master_Thesis_Deliverables\4-Current_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -133,7 +133,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RI vs Core waveguide width</a:t>
+              <a:t>Refractive Index vs Core waveguide width with Air Cladding</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -203,7 +203,27 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -347,7 +367,27 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -560,7 +600,27 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -758,7 +818,27 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -949,6 +1029,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="284948312"/>
         <c:axId val="284947984"/>
@@ -1164,18 +1245,13 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1324,7 +1400,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RI vs DC waveguide width</a:t>
+              <a:t>Refractive Index vs DC width with Air Cladding</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1367,7 +1443,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11703636487818204"/>
+          <c:y val="0.21291902071563087"/>
+          <c:w val="0.85818048766209054"/>
+          <c:h val="0.60230348325103433"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2207,18 +2293,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Slot</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> waveguide width</a:t>
+                  <a:t>width of each directional coupler (dc)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.33361102167061829"/>
+              <c:y val="0.91766419028129953"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2263,7 +2352,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2414,7 +2503,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27299573612777955"/>
+          <c:y val="0.11911443272980708"/>
+          <c:w val="0.45400833260154749"/>
+          <c:h val="6.3559766893545089E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2512,19 +2610,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2532,7 +2623,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RI vs Core waveguide width with a slab in slot </a:t>
+              <a:t>RI vs DC waveguide width with 110nm slab in slot area and Air Cladding </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2551,19 +2642,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2575,7 +2659,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8046044244469435E-2"/>
+          <c:y val="0.26825106391727144"/>
+          <c:w val="0.8395730033745783"/>
+          <c:h val="0.56413094577277056"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2594,31 +2688,51 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$A$2:$A$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0,00">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12</c:v>
@@ -2685,10 +2799,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$B$2:$B$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="12">
                   <c:v>1.00903178281158</c:v>
                 </c:pt>
@@ -2741,31 +2855,53 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:pattFill prst="pct5">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$A$2:$A$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0,00">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12</c:v>
@@ -2832,10 +2968,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$C$2:$C$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.01598442734784</c:v>
                 </c:pt>
@@ -2924,31 +3060,51 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$A$2:$A$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0,00">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12</c:v>
@@ -3015,10 +3171,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$D$2:$D$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="5">
                   <c:v>1.00659012439216</c:v>
                 </c:pt>
@@ -3092,31 +3248,51 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$A$2:$A$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="0,00">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.12</c:v>
@@ -3183,10 +3359,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Slot_waveguide_middle_slab!$E$2:$E$27</c:f>
+              <c:f>Slot_waveguide_middle_slab!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.1593778354092401</c:v>
                 </c:pt>
@@ -3268,6 +3444,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="284948312"/>
         <c:axId val="284947984"/>
@@ -3279,6 +3456,31 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3286,10 +3488,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3299,11 +3501,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>slot</a:t>
+                  <a:t>Width</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> waveguide width</a:t>
+                  <a:t> of each directional coupler</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3323,10 +3525,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3344,14 +3546,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3363,7 +3561,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3392,12 +3590,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3410,10 +3619,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3423,13 +3632,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t> Effective</a:t>
+                  <a:t> Effective Refractive index</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Refractive index</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3447,10 +3651,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3481,7 +3685,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3505,7 +3709,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3523,7 +3727,7 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3540,28 +3744,20 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4755,17 +4951,17 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4773,52 +4969,36 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4826,7 +5006,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4836,14 +5016,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4852,72 +5035,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4934,15 +5176,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4954,22 +5196,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4978,17 +5220,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4997,13 +5238,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5015,7 +5256,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -5023,122 +5264,135 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5146,14 +5400,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5166,18 +5419,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5186,12 +5431,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -5202,7 +5449,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5212,19 +5459,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5234,7 +5483,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5244,7 +5493,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5297,8 +5546,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -5332,8 +5581,8 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -5624,8 +5873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6444,7 +6693,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6471,7 +6720,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">

--- a/4-Current_work/pbs.xlsx
+++ b/4-Current_work/pbs.xlsx
@@ -6284,7 +6284,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
